--- a/aimir-web/src/main/webapp/temp/ModemAndMeterMapper_template.xlsx
+++ b/aimir-web/src/main/webapp/temp/ModemAndMeterMapper_template.xlsx
@@ -1,34 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Meter Mapper (4)" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Meter Mapper (4)'!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Modem Serial number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smart Meter Number</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>MODEM_DEVICE_SERIAL</t>
+  </si>
+  <si>
+    <t>METER_PRINTED_MDSID</t>
+  </si>
+  <si>
+    <t>METER_OBIS_MDSID</t>
+  </si>
+  <si>
+    <t>MODEM_DEVICE_SERIAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modem ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>METER_PRINTED_MDSID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meter SN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>METER_OBIS_MDSID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meter ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 digits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 digits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 digits</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -53,33 +86,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,12 +121,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -100,19 +146,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -135,44 +185,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -200,31 +250,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -252,23 +285,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -280,176 +296,261 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="30.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.8984375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1">
+    <sortState ref="A2:D323">
+      <sortCondition ref="A2:A323"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.8984375" customWidth="1"/>
-    <col min="2" max="2" width="23.09765625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.8984375" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" customWidth="1"/>
+    <col min="3" max="3" width="19.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B7"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>